--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17a-Il17rc.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il17a-Il17rc.xlsx
@@ -537,7 +537,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05038766666666667</v>
+        <v>0.05038766666666666</v>
       </c>
       <c r="H2">
         <v>0.151163</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.832373666666667</v>
+        <v>3.754144</v>
       </c>
       <c r="N2">
-        <v>5.497121</v>
+        <v>11.262432</v>
       </c>
       <c r="O2">
-        <v>0.1696126640512066</v>
+        <v>0.2855964853960988</v>
       </c>
       <c r="P2">
-        <v>0.1696126640512066</v>
+        <v>0.2855964853960988</v>
       </c>
       <c r="Q2">
-        <v>0.09232903352477778</v>
+        <v>0.1891625564906667</v>
       </c>
       <c r="R2">
-        <v>0.8309613017230001</v>
+        <v>1.702463008416</v>
       </c>
       <c r="S2">
-        <v>0.1696126640512066</v>
+        <v>0.2855964853960988</v>
       </c>
       <c r="T2">
-        <v>0.1696126640512066</v>
+        <v>0.2855964853960988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05038766666666667</v>
+        <v>0.05038766666666666</v>
       </c>
       <c r="H3">
         <v>0.151163</v>
@@ -623,10 +623,10 @@
         <v>11.913193</v>
       </c>
       <c r="O3">
-        <v>0.3675793933017277</v>
+        <v>0.3020986986332443</v>
       </c>
       <c r="P3">
-        <v>0.3675793933017276</v>
+        <v>0.3020986986332442</v>
       </c>
       <c r="Q3">
         <v>0.2000926659398889</v>
@@ -635,10 +635,10 @@
         <v>1.800833993459</v>
       </c>
       <c r="S3">
-        <v>0.3675793933017277</v>
+        <v>0.3020986986332443</v>
       </c>
       <c r="T3">
-        <v>0.3675793933017276</v>
+        <v>0.3020986986332442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05038766666666667</v>
+        <v>0.05038766666666666</v>
       </c>
       <c r="H4">
         <v>0.151163</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.957584333333333</v>
+        <v>5.376329333333334</v>
       </c>
       <c r="N4">
-        <v>14.872753</v>
+        <v>16.128988</v>
       </c>
       <c r="O4">
-        <v>0.4588960763471599</v>
+        <v>0.4090042262449046</v>
       </c>
       <c r="P4">
-        <v>0.4588960763471598</v>
+        <v>0.4090042262449045</v>
       </c>
       <c r="Q4">
-        <v>0.2498011068598889</v>
+        <v>0.2709006903382222</v>
       </c>
       <c r="R4">
-        <v>2.248209961739</v>
+        <v>2.438106213044</v>
       </c>
       <c r="S4">
-        <v>0.4588960763471599</v>
+        <v>0.4090042262449046</v>
       </c>
       <c r="T4">
-        <v>0.4588960763471598</v>
+        <v>0.4090042262449045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,7 +723,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05038766666666667</v>
+        <v>0.05038766666666666</v>
       </c>
       <c r="H5">
         <v>0.151163</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04226099999999999</v>
+        <v>0.043386</v>
       </c>
       <c r="N5">
-        <v>0.126783</v>
+        <v>0.130158</v>
       </c>
       <c r="O5">
-        <v>0.003911866299905738</v>
+        <v>0.003300589725752433</v>
       </c>
       <c r="P5">
-        <v>0.003911866299905737</v>
+        <v>0.003300589725752433</v>
       </c>
       <c r="Q5">
-        <v>0.002129433181</v>
+        <v>0.002186119306</v>
       </c>
       <c r="R5">
-        <v>0.019164898629</v>
+        <v>0.019675073754</v>
       </c>
       <c r="S5">
-        <v>0.003911866299905738</v>
+        <v>0.003300589725752433</v>
       </c>
       <c r="T5">
-        <v>0.003911866299905737</v>
+        <v>0.003300589725752433</v>
       </c>
     </row>
   </sheetData>
